--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 1 (40, 15, 6, 37, 25)/Ableson 6 (33, 49, 46, 37, 41)/NCDE_32nodes_Uniform0.05Virtual_Nelson(40, 15, 6, 37, 25)_Ableson(33, 49, 46, 37, 41)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 1 (40, 15, 6, 37, 25)/Ableson 6 (33, 49, 46, 37, 41)/NCDE_32nodes_Uniform0.05Virtual_Nelson(40, 15, 6, 37, 25)_Ableson(33, 49, 46, 37, 41)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999999934677399</v>
+        <v>0.9999999934554245</v>
       </c>
       <c r="E2">
-        <v>0.9999999934677399</v>
+        <v>0.9999999934554245</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9999844899703155</v>
+        <v>0.9999840597829652</v>
       </c>
       <c r="E3">
-        <v>0.9999844899703155</v>
+        <v>0.9999840597829652</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.2201449149547088</v>
+        <v>0.22021000001724</v>
       </c>
       <c r="E4">
-        <v>0.2201449149547088</v>
+        <v>0.22021000001724</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9995209993506111</v>
+        <v>0.9995209817050612</v>
       </c>
       <c r="E6">
-        <v>0.9995209993506111</v>
+        <v>0.9995209817050612</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9840080864305805</v>
+        <v>0.9999999999992284</v>
       </c>
       <c r="E7">
-        <v>0.01599191356941954</v>
+        <v>7.716050021144838E-13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9836856537371795</v>
+        <v>0.9920148768728613</v>
       </c>
       <c r="E8">
-        <v>0.01631434626282047</v>
+        <v>0.007985123127138727</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -551,13 +551,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.9844135308645715</v>
+        <v>0.00985588110446288</v>
       </c>
       <c r="E9">
-        <v>0.01558646913542849</v>
+        <v>0.9901441188955371</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.985045412434149</v>
+        <v>0.9779544071085774</v>
       </c>
       <c r="E10">
-        <v>0.014954587565851</v>
+        <v>0.02204559289142261</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -579,19 +579,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.9841774759174799</v>
+        <v>5.130014740879528E-10</v>
       </c>
       <c r="E11">
-        <v>0.01582252408252005</v>
+        <v>0.9999999994869986</v>
       </c>
       <c r="F11">
-        <v>7.349526882171631</v>
+        <v>9.929945945739746</v>
       </c>
       <c r="G11">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.9989045071990619</v>
+        <v>0.9989056102864499</v>
       </c>
       <c r="E13">
-        <v>0.9989045071990619</v>
+        <v>0.9989056102864499</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.3447196871036874</v>
+        <v>0.3445887013055929</v>
       </c>
       <c r="E14">
-        <v>0.3447196871036874</v>
+        <v>0.3445887013055929</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.9999819560273145</v>
+        <v>0.9999819771802413</v>
       </c>
       <c r="E16">
-        <v>0.9999819560273145</v>
+        <v>0.9999819771802413</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9983273968396862</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0.001672603160313813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -689,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.9986733846366658</v>
+        <v>0.9996666675087397</v>
       </c>
       <c r="E18">
-        <v>0.001326615363334227</v>
+        <v>0.0003333324912603297</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.9984504410686414</v>
+        <v>0.0004391268535465651</v>
       </c>
       <c r="E19">
-        <v>0.001549558931358552</v>
+        <v>0.9995608731464535</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -717,10 +717,10 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.9987693108779087</v>
+        <v>0.9949017237359963</v>
       </c>
       <c r="E20">
-        <v>0.001230689122091344</v>
+        <v>0.00509827626400372</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -728,19 +728,19 @@
         <v>15</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.9985584350826957</v>
+        <v>9.116627185631092E-10</v>
       </c>
       <c r="E21">
-        <v>0.001441564917304294</v>
+        <v>0.9999999990883373</v>
       </c>
       <c r="F21">
-        <v>13.11262702941895</v>
+        <v>15.96742534637451</v>
       </c>
       <c r="G21">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
